--- a/biology/Histoire de la zoologie et de la botanique/Seizo_Suzuki/Seizo_Suzuki.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Seizo_Suzuki/Seizo_Suzuki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Seizo Wakahayashi, dit Seizo Suzuki (23 mai 1913 – 20 janvier 2000), est  un pépiniériste rosiériste japonais  surnommé « Mister Rose ».
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Seizo Suzuki est né en 1913 à Koishikawa, dans le département de Tokyo. En 1922, sa famille déménage à Shimoochiai. Après des études au lycée public de Shinjuku, il entre à l’école de botanique de Tôkyô où il étudie le paysagisme et l’horticulture. Lorsqu’il en sort, il se perfectionne en horticulture et son intérêt pour les roses débute.
 En 1938, Seizo Suzuki crée dans l’actuelle Okusawa de l’arrondissement de Setagayaku une roseraie, le « Todorokibaraen » (le « jardin où bourdonnent les roses »). Là il commence à cultiver les rosiers.
